--- a/TP_DATA_PROG/I.a.Paramlink/lod_results_modM5.xlsx
+++ b/TP_DATA_PROG/I.a.Paramlink/lod_results_modM5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\OneDrive\Desktop\Uni\NGS\Project\TP_DATA_PROG\TP_DATA_PROG\I.a.Paramlink\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\OneDrive\Desktop\Uni\NGS\Project\TP_DATA_PROG\I.a.Paramlink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B4668337-F829-4B3B-9D57-FB7E7358262B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBC65C9-D8C5-4B65-AEE8-88F2D44B535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9522A3CB-9521-42F9-A901-D3AEFD56C175}"/>
+    <workbookView xWindow="5760" yWindow="1392" windowWidth="17280" windowHeight="8880" xr2:uid="{9522A3CB-9521-42F9-A901-D3AEFD56C175}"/>
   </bookViews>
   <sheets>
     <sheet name="lod_results" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>CHR</t>
   </si>
@@ -73,17 +73,23 @@
     <t>M13</t>
   </si>
   <si>
-    <t>M5-mod AF</t>
+    <t>θ</t>
   </si>
   <si>
-    <t>M5-original</t>
+    <t>LOD-equal AF</t>
+  </si>
+  <si>
+    <t>LOD-mod AF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +224,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+      <charset val="222"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,8 +412,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -515,6 +540,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -560,8 +596,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -939,14 +984,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC926DF-4FFE-4F9A-99A2-F62ADA8B99E3}">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6:AG14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="33" max="33" width="11.33203125" customWidth="1"/>
-    <col min="34" max="34" width="12.109375" customWidth="1"/>
+    <col min="32" max="32" width="7.33203125" customWidth="1"/>
+    <col min="33" max="34" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -1287,7 +1332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1372,14 +1417,17 @@
       <c r="AD5">
         <v>2.3859583862679399</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AF5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AG5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1464,14 +1512,17 @@
       <c r="AD6">
         <v>-32.173267885151198</v>
       </c>
-      <c r="AG6">
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
         <v>6.1601384000000001</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="3">
         <v>6.0050443175702704</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1556,14 +1607,17 @@
       <c r="AD7">
         <v>2.1590621317511798</v>
       </c>
-      <c r="AG7">
+      <c r="AF7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="AG7" s="2">
         <v>5.6089780999999999</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="3">
         <v>5.4606032278796199</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1648,14 +1702,17 @@
       <c r="AD8">
         <v>2.3859583862679399</v>
       </c>
-      <c r="AG8">
+      <c r="AF8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AG8" s="2">
         <v>5.0311016000000004</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="3">
         <v>4.88981883387663</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1740,14 +1797,17 @@
       <c r="AD9">
         <v>2.3427504047485899</v>
       </c>
-      <c r="AG9">
+      <c r="AF9" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AG9" s="2">
         <v>4.4242603000000003</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="3">
         <v>4.2903721149723602</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1832,14 +1892,17 @@
       <c r="AD10">
         <v>2.1757202916343599</v>
       </c>
-      <c r="AG10">
+      <c r="AF10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AG10" s="2">
         <v>3.7862269999999998</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="3">
         <v>3.6599708694117701</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1924,14 +1987,17 @@
       <c r="AD11">
         <v>1.9301441579746501</v>
       </c>
-      <c r="AG11">
+      <c r="AF11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AG11" s="2">
         <v>3.1152044000000001</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="3">
         <v>2.9968531737714801</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2016,14 +2082,17 @@
       <c r="AD12">
         <v>1.6262113081887599</v>
       </c>
-      <c r="AG12">
+      <c r="AF12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AG12" s="2">
         <v>2.4110014999999998</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="3">
         <v>2.3012370795944799</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2108,14 +2177,17 @@
       <c r="AD13">
         <v>0.88474406175630105</v>
       </c>
-      <c r="AG13">
+      <c r="AF13" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AG13" s="2">
         <v>0.94541969999999997</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" s="3">
         <v>0.86436054549950803</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2200,15 +2272,66 @@
       <c r="AD14">
         <v>0</v>
       </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
+      <c r="AF14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="R6:R14">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:S14">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6:T14">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6:U14">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6:V14">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2220,7 +2343,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6:S14">
+  <conditionalFormatting sqref="W6:W14">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2232,7 +2355,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T6:T14">
+  <conditionalFormatting sqref="X6:X14">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2244,7 +2367,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U6:U14">
+  <conditionalFormatting sqref="Y6:Y14">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2256,7 +2379,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V6:V14">
+  <conditionalFormatting sqref="Z6:Z14">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2268,7 +2391,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W6:W14">
+  <conditionalFormatting sqref="AA6:AA14">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2280,7 +2403,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X6:X14">
+  <conditionalFormatting sqref="AB6:AB14">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2292,7 +2415,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Y14">
+  <conditionalFormatting sqref="AC6:AC14">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2304,7 +2427,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z6:Z14">
+  <conditionalFormatting sqref="AD6:AD15">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2316,43 +2439,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA6:AA14">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="AF5">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB6:AB14">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC6:AC14">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD6:AD15">
+  <conditionalFormatting sqref="AG5:AH5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2364,42 +2463,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH6:AH14">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG6:AG14">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG6:AH14">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>